--- a/data/trans_orig/Q19A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q19A-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.373416200115424</v>
+        <v>0.3703209538045361</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4596322208540675</v>
+        <v>0.4652009077021028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5768083636353478</v>
+        <v>0.5769846858646926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3520150576519216</v>
+        <v>0.3433176568009116</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5711526251115392</v>
+        <v>0.5648744103066582</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5892352222585046</v>
+        <v>0.5845282257819561</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.661658559116779</v>
+        <v>0.6538308955692567</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4755570995336863</v>
+        <v>0.4921128657865284</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4897157029208715</v>
+        <v>0.4968746422559319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5562427219442528</v>
+        <v>0.5560051813208667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6527709613961639</v>
+        <v>0.6549840261049973</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4580638684485731</v>
+        <v>0.4440627716899323</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5981392224861642</v>
+        <v>0.6206923646749385</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7304306924076762</v>
+        <v>0.7471643015287117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8955670098216294</v>
+        <v>0.8833801392188677</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.672379545158313</v>
+        <v>0.6538651821867315</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7766949384731162</v>
+        <v>0.7749680663701346</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.063138769085523</v>
+        <v>1.062809956341978</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.949650407041723</v>
+        <v>0.9365664010776549</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9627769706451259</v>
+        <v>0.9877949830648275</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6460113067022275</v>
+        <v>0.6468215177116338</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8210528356913442</v>
+        <v>0.8100051286091607</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.855073882728423</v>
+        <v>0.8576381632580103</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7540142659124288</v>
+        <v>0.7187021207775716</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3890579188840719</v>
+        <v>0.3920292707755051</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3972925416261693</v>
+        <v>0.4034016404470203</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.535771523567929</v>
+        <v>0.529543009440047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3488855569717675</v>
+        <v>0.3472771219221908</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5043912735405033</v>
+        <v>0.4965805337816548</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5741600903107291</v>
+        <v>0.5681957172674122</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6278424576405593</v>
+        <v>0.6288860078672002</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5064326550586035</v>
+        <v>0.5043798700367067</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4617233620817597</v>
+        <v>0.4633483873031003</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5030988098575899</v>
+        <v>0.5104433622964989</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6075924217661168</v>
+        <v>0.606281473572758</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4599559632736348</v>
+        <v>0.4599261525002912</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5961138930917532</v>
+        <v>0.6029849363638028</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5745694465332835</v>
+        <v>0.5628836727764628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7731142264782107</v>
+        <v>0.7680571023540357</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.582743948021611</v>
+        <v>0.5845217585141164</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7236163141991182</v>
+        <v>0.7351837457206307</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8489581261262068</v>
+        <v>0.8482705945743747</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8482586917676683</v>
+        <v>0.8543355977841305</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7575775592602078</v>
+        <v>0.7531861707050714</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6080253733054425</v>
+        <v>0.612426034349729</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6623295267726749</v>
+        <v>0.663531576413217</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7621971248583334</v>
+        <v>0.7747520690219066</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6350668158784329</v>
+        <v>0.6234540126188562</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.4242587538120193</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3633272745658711</v>
+        <v>0.363327274565871</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5439328524293641</v>
@@ -953,7 +953,7 @@
         <v>0.6051868083125314</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6021989516320786</v>
+        <v>0.6021989516320785</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4657330923321393</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3197605862332966</v>
+        <v>0.3137323561858868</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3325926114999599</v>
+        <v>0.3291864938072365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.360063964753533</v>
+        <v>0.3627989191026195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3004230065579068</v>
+        <v>0.3032899703534422</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4532128378599827</v>
+        <v>0.4558164992593113</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5120816944715642</v>
+        <v>0.5146713733607502</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5200079702555721</v>
+        <v>0.5180891551628327</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5298091591301689</v>
+        <v>0.5366798889003618</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4050470901605641</v>
+        <v>0.405413210641519</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4445701057652937</v>
+        <v>0.4390063178724707</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4582981622868764</v>
+        <v>0.4547592585115706</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4325666320981347</v>
+        <v>0.4335530767476791</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4685724716764442</v>
+        <v>0.4637563498571243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4654014360390869</v>
+        <v>0.4678656193390598</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5081407490251945</v>
+        <v>0.5121868725248395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4361969744229048</v>
+        <v>0.4402819967166783</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7210187638564337</v>
+        <v>0.7471198006178796</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6899219229375242</v>
+        <v>0.6978244693472671</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7134847016622724</v>
+        <v>0.720409171081328</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6878411339592581</v>
+        <v>0.6835630627538642</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5661485775783588</v>
+        <v>0.5525738721664638</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5583839531174067</v>
+        <v>0.5617579713700169</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5840578653224298</v>
+        <v>0.5749968931002314</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5371279718522568</v>
+        <v>0.5476690508607615</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3783015767744884</v>
+        <v>0.3835772116591318</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3394171674841255</v>
+        <v>0.3363358798443181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4090952512322901</v>
+        <v>0.4107901255879316</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3997681931321506</v>
+        <v>0.3985616390627433</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5557530046616848</v>
+        <v>0.5505532469693938</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5810187130383386</v>
+        <v>0.5939809956953899</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4391165046767587</v>
+        <v>0.4458013786183965</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5379137087496708</v>
+        <v>0.5365718783371765</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4898501347277144</v>
+        <v>0.4940366605105139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.490477746833227</v>
+        <v>0.4900561912339902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4489725424812031</v>
+        <v>0.4450499897251374</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.491379179650457</v>
+        <v>0.4914435770930861</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7710873360977689</v>
+        <v>0.753294935050687</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4890536664995611</v>
+        <v>0.4811220184437875</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5822578449033459</v>
+        <v>0.591338132166461</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7290920402329486</v>
+        <v>0.680950780417097</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8199509245494794</v>
+        <v>0.8125244919170941</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9239073391110522</v>
+        <v>0.9185566454128276</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6049692450857682</v>
+        <v>0.6055152268550388</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6895108731819251</v>
+        <v>0.6915891481460779</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7182294373664551</v>
+        <v>0.7227051885427026</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.674120455379721</v>
+        <v>0.6749753397844144</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5636233911869548</v>
+        <v>0.5727302999722961</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6523789906324545</v>
+        <v>0.6524081879879822</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.4758955203758881</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5980373498665071</v>
+        <v>0.5980373498665073</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4432772756148047</v>
@@ -1237,7 +1237,7 @@
         <v>0.4477898765439657</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4908698574356784</v>
+        <v>0.4908698574356783</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3373669724742441</v>
+        <v>0.3409748158055103</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.318853345416307</v>
+        <v>0.3181395484881762</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3385853946824242</v>
+        <v>0.3471728242033325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3253775071283161</v>
+        <v>0.3259393924056701</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3766690637350515</v>
+        <v>0.3753111238547292</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4503442361668956</v>
+        <v>0.4565622729233069</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3973896567231309</v>
+        <v>0.389134823504148</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5221224072716665</v>
+        <v>0.5133150905376748</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3753669186759732</v>
+        <v>0.3813487134036737</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4168435302868077</v>
+        <v>0.4215365941437921</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3854031276079196</v>
+        <v>0.3915259637456647</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4402637140043569</v>
+        <v>0.442230506502692</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5517951436117056</v>
+        <v>0.5596975779827549</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5836148768356526</v>
+        <v>0.5744565835054631</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5157933067060847</v>
+        <v>0.5169765012936554</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4590632224612478</v>
+        <v>0.4580937645764296</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5521507387576555</v>
+        <v>0.5549925362307065</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7827971434112407</v>
+        <v>0.7951287281758405</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5856760157667402</v>
+        <v>0.5772728795742487</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.705104052174066</v>
+        <v>0.7046288073334278</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5171436480750404</v>
+        <v>0.5187039692483045</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6111955368329069</v>
+        <v>0.6204423302104145</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5114188294603006</v>
+        <v>0.5236947109700356</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5505935407147456</v>
+        <v>0.554204796533168</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.249895706875092</v>
+        <v>0.2461759869207117</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2436246965531805</v>
+        <v>0.2468609988577433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2305778473955593</v>
+        <v>0.2252712848425187</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.365927957503946</v>
+        <v>0.366663164877387</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2672183815328942</v>
+        <v>0.260309004746615</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4314795636217268</v>
+        <v>0.4220927462557492</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3658793801301446</v>
+        <v>0.3707581055077827</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3877600442812713</v>
+        <v>0.3892182474483707</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2802799902698798</v>
+        <v>0.2847755484196104</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3690800926430133</v>
+        <v>0.3646678052478822</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.316176328763155</v>
+        <v>0.3240117262073723</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4043576814744641</v>
+        <v>0.4069660440542519</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5280785192615279</v>
+        <v>0.5094847179031374</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5568034172209531</v>
+        <v>0.5620011458897681</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4192640907652679</v>
+        <v>0.4291246245384802</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5714071420113349</v>
+        <v>0.5686856438701895</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4948200195400039</v>
+        <v>0.4780306113048339</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7190298059531165</v>
+        <v>0.6862393294858493</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5743994823573778</v>
+        <v>0.5562703909263896</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7884322924842544</v>
+        <v>0.7832065393752053</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4596281340249666</v>
+        <v>0.4579322505534569</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.583705435970908</v>
+        <v>0.5789047389277632</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4598445355784259</v>
+        <v>0.4708451925094307</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6335941006037304</v>
+        <v>0.6224347549598369</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1125933544784753</v>
+        <v>0.1137309313201775</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08472101421989663</v>
+        <v>0.0902886416658524</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1220519991676174</v>
+        <v>0.1213265603385834</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.19097652115755</v>
+        <v>0.193362087913046</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1365210089249161</v>
+        <v>0.1370606771053108</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1788367826676857</v>
+        <v>0.1716245223978073</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1820430239194304</v>
+        <v>0.189378233475105</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1787704784023134</v>
+        <v>0.1732059636389464</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1434742113103834</v>
+        <v>0.1440682089475597</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1564754619781649</v>
+        <v>0.1561087933304351</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1754266109255729</v>
+        <v>0.1754162670567143</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1978847675338798</v>
+        <v>0.1947907864982546</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2619924975240739</v>
+        <v>0.2606976389559687</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2436287668952846</v>
+        <v>0.2451952487962362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.278891719115053</v>
+        <v>0.2809033813639721</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3687609491745259</v>
+        <v>0.3544781772630703</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2874611412305264</v>
+        <v>0.2899685428274865</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3691663855313931</v>
+        <v>0.3824530586317224</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3935375573290316</v>
+        <v>0.3852583912158709</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2752362948708174</v>
+        <v>0.2686623515959712</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.258175421331479</v>
+        <v>0.2541475787340466</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2969299301297923</v>
+        <v>0.294346549402047</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3082659453144507</v>
+        <v>0.3032421322954662</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2849847864074995</v>
+        <v>0.2859121848594824</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.5561311903818519</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.5516540123823851</v>
+        <v>0.5516540123823852</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.4747221730014991</v>
@@ -1645,7 +1645,7 @@
         <v>0.517184193187492</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.4863875198100112</v>
+        <v>0.4863875198100113</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3852247698073394</v>
+        <v>0.3863034340893119</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3863869678558341</v>
+        <v>0.3826108332604813</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4374828921513595</v>
+        <v>0.4417576212452758</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3816050477638474</v>
+        <v>0.3835802411075943</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4823612136698771</v>
+        <v>0.4830401508787655</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5568269117146938</v>
+        <v>0.5600160064580348</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5202123130155546</v>
+        <v>0.5209764960066045</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.5124663831313844</v>
+        <v>0.5132324167261983</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4453477530337714</v>
+        <v>0.4463367074950827</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4844952539803308</v>
+        <v>0.4832766780309349</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4933883117248132</v>
+        <v>0.4895892285428761</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4584499931725509</v>
+        <v>0.458048638775744</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4731366961014443</v>
+        <v>0.4732448610885562</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4664247983017683</v>
+        <v>0.4576771276466743</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5184437200297827</v>
+        <v>0.5192572749202398</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4640063413740042</v>
+        <v>0.4670664630194257</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5699237079766001</v>
+        <v>0.5817098416427871</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.669716908587021</v>
+        <v>0.6726863594842521</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5970951341813023</v>
+        <v>0.6012857467402508</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5971646137228366</v>
+        <v>0.5997513043144367</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.512411686695326</v>
+        <v>0.5092155588206941</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5534108900748662</v>
+        <v>0.5512651421080023</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5478404175457511</v>
+        <v>0.5468016028484591</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.5193013161913822</v>
+        <v>0.5172668161346238</v>
       </c>
     </row>
     <row r="28">
